--- a/2023-1/test_cloud/test_cloud_saas.xlsx
+++ b/2023-1/test_cloud/test_cloud_saas.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"动物","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDB%2B3sn75KjvWabWX9oTEDeN5L3YT4rDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWi4ezbPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABgQ%2BvlF%2Fn3iP%2BkLfySfjcOFv4b%2FIR3MT%2FmeqPo5qJYcm6cy4hS5HEGKVYlOiH0ORGPSatMwCcRkUOQcdbbtT6GUED7pSZ8vOGaAki9yMQWcUL3xdF2dk2e4sMmL0YxalZO8opMwFdhFx9OPGGGomzFpxVXPPI7f1hYY95LcjevkM%3D&amp;x-oss-access-key-id=STS.NSvLWXrak97qoCLE1VtQg2ASN&amp;x-oss-expires=1679362472&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=I2dmpLRBbS0P3M%2BFaxGP4%2FWyZ0fvUCQ2f6fjeOZ4ttw%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","coverTagConfidence":0.825,"coverOverallScore":0.7},{"name":"人物","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDB%2B3sn75KjvWabWX9oTEDeN5L3YT4rDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWi4ezbPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABgQ%2BvlF%2Fn3iP%2BkLfySfjcOFv4b%2FIR3MT%2FmeqPo5qJYcm6cy4hS5HEGKVYlOiH0ORGPSatMwCcRkUOQcdbbtT6GUED7pSZ8vOGaAki9yMQWcUL3xdF2dk2e4sMmL0YxalZO8opMwFdhFx9OPGGGomzFpxVXPPI7f1hYY95LcjevkM%3D&amp;x-oss-access-key-id=STS.NSvLWXrak97qoCLE1VtQg2ASN&amp;x-oss-expires=1679362472&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=gOZTvi9FsfMKVqkjYo3%2BuwQRIqm7Y%2BXRG4Z0UPU1y0A%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","coverTagConfidence":null,"coverOverallScore":0.676},{"name":"电子产品","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDB%2B3sn75KjvWabWX9oTEDeN5L3YT4rDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWi4ezbPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABgQ%2BvlF%2Fn3iP%2BkLfySfjcOFv4b%2FIR3MT%2FmeqPo5qJYcm6cy4hS5HEGKVYlOiH0ORGPSatMwCcRkUOQcdbbtT6GUED7pSZ8vOGaAki9yMQWcUL3xdF2dk2e4sMmL0YxalZO8opMwFdhFx9OPGGGomzFpxVXPPI7f1hYY95LcjevkM%3D&amp;x-oss-access-key-id=STS.NSvLWXrak97qoCLE1VtQg2ASN&amp;x-oss-expires=1679362472&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=4gO8mkWF0oxF%2BIdBSuJaXpCeGXh4GKaUSl8%2B4JdZSqI%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7691b0d240305e142baa9d404cf315a88d1","coverTagConfidence":1.0,"coverOverallScore":0.72}]}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"动物","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=R3zocS5%2BRhfiikY1r8ogdvr0%2FC9qbEjPdmQmSSGjRgQ%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","coverTagConfidence":0.825,"coverOverallScore":0.7},{"name":"人物","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=bh2qGijlStZftrBb9qYuJ%2Bqm0Ojil8B2pLtFUzoa2Xg%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","coverTagConfidence":null,"coverOverallScore":0.676},{"name":"电子产品","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=KsP3Wf4lrW5%2Fv%2BZh7CY9FWcUSAmt3YHpJ2e8H6fv9D8%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7691b0d240305e142baa9d404cf315a88d1","coverTagConfidence":1.0,"coverOverallScore":0.72}]}}</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=q1BVywisNQ%2BPRi1FCiVoSoj1ZqZbQ9mGpbsryHszr2U%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=9xUCpJbAnXrlKw4l%2B%2FBfRowg7PPUHLnV0Aw8opxSMzg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=toC2jfS8vdhdBdksIrg0jy4srQzzvc5ba%2FibP7WZ5hI%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=gdr5Hpdh7iS0%2Fnkf943dJv4%2FzscC3ryKqlndS%2BSJQaU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=n9cddqNeVcgs2EiILFjsjLflf0OFZp%2BKYL2yq4LVsjY%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=F0vdCelhRRZJsUa1Fkdai%2Bk3lJj1cxGaX0mM8ud6tyQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广州市","location":"23.132277,113.374466","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDB%2B3sn75KjvWabWX9oTEDeN5L3YT4rDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWi4ezbPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABgQ%2BvlF%2Fn3iP%2BkLfySfjcOFv4b%2FIR3MT%2FmeqPo5qJYcm6cy4hS5HEGKVYlOiH0ORGPSatMwCcRkUOQcdbbtT6GUED7pSZ8vOGaAki9yMQWcUL3xdF2dk2e4sMmL0YxalZO8opMwFdhFx9OPGGGomzFpxVXPPI7f1hYY95LcjevkM%3D&amp;x-oss-access-key-id=STS.NSvLWXrak97qoCLE1VtQg2ASN&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=XBncN3IZ2fveIF7KhIEOeAUVkoQdDA5RcTqNt8t%2B7G8%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}],"nextPageCursor":null}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广州市","location":"23.132277,113.374466","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=R3zocS5%2BRhfiikY1r8ogdvr0%2FC9qbEjPdmQmSSGjRgQ%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}],"nextPageCursor":null}}</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广东省","location":"23.132332,113.374245","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDB%2B3sn75KjvWabWX9oTEDeN5L3YT4rDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWi4ezbPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABgQ%2BvlF%2Fn3iP%2BkLfySfjcOFv4b%2FIR3MT%2FmeqPo5qJYcm6cy4hS5HEGKVYlOiH0ORGPSatMwCcRkUOQcdbbtT6GUED7pSZ8vOGaAki9yMQWcUL3xdF2dk2e4sMmL0YxalZO8opMwFdhFx9OPGGGomzFpxVXPPI7f1hYY95LcjevkM%3D&amp;x-oss-access-key-id=STS.NSvLWXrak97qoCLE1VtQg2ASN&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_1080%2Ch_1080&amp;x-oss-signature=WWYxb5lkqujU7qmxB0XSBG60AhQAuNTCrNnOmyrMZNs%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416b57a3d0d17261954455a9bb09fe15028867b","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}]}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广东省","location":"23.132332,113.374245","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_1080%2Ch_1080&amp;x-oss-signature=E%2FbozyINeHAhXwSvqnbMXJSFmZ7Uy7JPiCAXUOA%2B5N8%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416b57a3d0d17261954455a9bb09fe15028867b","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}]}}</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=q1BVywisNQ%2BPRi1FCiVoSoj1ZqZbQ9mGpbsryHszr2U%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=9xUCpJbAnXrlKw4l%2B%2FBfRowg7PPUHLnV0Aw8opxSMzg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=toC2jfS8vdhdBdksIrg0jy4srQzzvc5ba%2FibP7WZ5hI%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=gdr5Hpdh7iS0%2Fnkf943dJv4%2FzscC3ryKqlndS%2BSJQaU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=n9cddqNeVcgs2EiILFjsjLflf0OFZp%2BKYL2yq4LVsjY%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bMfcPh3q937ayqZlzzkXcWeflJmbL7iDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNUmcCjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABa3dxxpk%2BEy290ED%2FMheYKSOhdTu33yKB4wCky6fwgNNVobvpBf5by36OCScPYpSOLdzKC9fs%2FiwvqODbiI9JC8rDDPV1KtwEgGqll3NuHh%2B1DNs0zUUwm57sOkzt5v1tmvY0kUWoq8SiAVdjePBfWbdJ0KSb4mjREqqSUpd49OE%3D&amp;x-oss-access-key-id=STS.NUy6yU3pVZnAdzBuwCuvevwPj&amp;x-oss-expires=1679362473&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=F0vdCelhRRZJsUa1Fkdai%2Bk3lJj1cxGaX0mM8ud6tyQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>{"success":false,"code":"04000000","message":"内部错误","data":null}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>{"success":false,"code":"04000000","message":"内部错误","data":null}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":[{"fileInfo":{"fileId":"/sbox","parentFileId":"/","name":"保险箱","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/videostory","parentFileId":"/","name":"来自相册：视频故事","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/myfaverapp","parentFileId":"/","name":"我的应用收藏","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"641430da255f601287a0420c96814120cffe5a4c","parentFileId":"/","name":"test1679044827.docx","description":"单片上传","type":"file","fileExtension":"docx","category":"doc","createdAt":"2023-03-17T17:20:26.482Z","updatedAt":"2023-03-17T17:20:26.482Z","trashedAt":null,"starred":false,"size":63919,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-valueadd.oss-cn-guangzhou.aliyuncs.com/OfficeThumbnail%2Fx6jPugKx%2F503%2F6414170b6bc07fb9a6174365826cccd3abd7ee60%2F6414170ba368f5731ab44839b7a19f602f2bd6c0%2F1.jpg?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_mfit%2Cw_256%2Climit_0&amp;x-oss-signature=9iHqmEEC8DDnwRANAwBWGNLdAw2I2ZX6xaa2nLWoqCs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"641430da7a6386c350434149bbbdf6d14d79827e","mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"/","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:08:48.815Z","updatedAt":"2023-03-19T14:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=WNbnzXeFdv3lIegQWKAy2JEDoaGulAfyDx4%2F9hyL8CQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025251000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"/","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:09:33.665Z","updatedAt":"2023-03-19T14:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=UpNDrYkniwuVqParIHaeuipBgKyIC5aKlcKhA1bdlEg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025278000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"/","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:10:49.342Z","updatedAt":"2023-03-19T14:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=OIIYRUzkG6ubMMONk3Lu7M9N4Qebyhpqg1o3WpUEvuM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1631212363000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"/","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:11:33.252Z","updatedAt":"2023-03-19T14:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=YjKXskLBvc%2BaSkQno9JLJbfSSd3wmzs5B4wP9CizwZM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1641380204000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=27KZwPTfeiKDjAJqlnkvr%2FiHDKDAoBPUzaZqS42CU%2BA%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"/","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T15:10:50.524Z","updatedAt":"2023-03-19T15:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=tmd2o%2Fxk%2F9F9gvOjy1DKryhqVCApjx3OTPUuBiIOZNc%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1644860350000,"duration":null}},"isIngested":true}]}</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"ZXoBAHTUTRP","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T01:19:33.813Z","updatedAt":"2023-03-21T01:19:33.813Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.015Z","fileCount":0}}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"ZXoBAHTUTRP","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T01:19:33.813Z","updatedAt":"2023-03-21T01:19:33.813Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.015Z","fileCount":0}}</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"ZXoBAHTUTRP","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-21T01:19:33.813Z","updatedAt":"2023-03-21T01:19:33.991Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.219Z","fileCount":0}}</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"albumId":"gfqrbknoaYo","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":{"userSpecified":false,"list":[{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"localCreatedAt":"2023-03-20T06:51:27.292Z","localUpdatedAt":"2023-03-20T06:51:27.292Z","starred":false,"size":3089098,"userTags":null,"labels":null,"thumbnailUrls":[{"style":"Big","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fUec3NircS2faSel%2Fa1XYlaN0Uu%2FTP0Dz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNRXrBjfPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABKn%2BZPRrsEHLh4QmzxZmVtnv2Qp64C5BZm1FySATNTN6ie4dfvvYwpSWe%2F%2Fyk1PMESewqAKWKV8G8%2FhSn5THok5SnmVE7GKC5pMk49CNaST9rx8BKHao0aGgf7072BDaJMNv5p%2FDyK%2BmiHqwykHPT3yErCf0efBecXhomL3uoslg%3D&amp;x-oss-access-key-id=STS.NTa2wygh3n4yxyk1vpdR8T1d2&amp;x-oss-expires=1679362474&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_800&amp;x-oss-signature=CPi8LNTeFQ3WRS9ea3LaefhsgX3odQHczAK0JuyxXbQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"contentHash":"0A7388718ADD1F6F4C4D6D6A393DCA54EF116833","contentHashAlgorithm":"SHA1","revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null},"addressDetail":{"addressline":"广东省广州市天河区棠下街道棠新小区","country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"},"systemDir":null}]},"createdAt":"2023-03-19T06:16:43.168Z","updatedAt":"2023-03-20T08:37:11.162Z","fileCount":1}],"nextMarker":"","totalCount":1}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"albumId":"gfqrbknoaYo","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":{"userSpecified":false,"list":[{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"localCreatedAt":"2023-03-20T06:51:27.292Z","localUpdatedAt":"2023-03-20T06:51:27.292Z","starred":false,"size":3089098,"userTags":null,"labels":null,"thumbnailUrls":[{"style":"Big","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385411&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_800&amp;x-oss-signature=8tMxIN3PsRWMO5cwUYXcWlM%2B0A7ZHY3QIqE7rvGaKQs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"contentHash":"0A7388718ADD1F6F4C4D6D6A393DCA54EF116833","contentHashAlgorithm":"SHA1","revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null},"addressDetail":{"addressline":"广东省广州市天河区棠下街道棠新小区","country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"},"systemDir":null}]},"createdAt":"2023-03-19T06:16:43.168Z","updatedAt":"2023-03-20T08:37:11.162Z","fileCount":1}],"nextMarker":"","totalCount":1}}</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">

--- a/2023-1/test_cloud/test_cloud_saas.xlsx
+++ b/2023-1/test_cloud/test_cloud_saas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2273" yWindow="570" windowWidth="18180" windowHeight="12210" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -469,8 +469,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="50" customHeight="1"/>
@@ -485,8 +485,8 @@
     <col width="30.33203125" customWidth="1" style="2" min="8" max="8"/>
     <col width="27.6640625" customWidth="1" style="2" min="9" max="9"/>
     <col width="17.265625" customWidth="1" style="2" min="10" max="10"/>
-    <col width="9.06640625" customWidth="1" style="2" min="11" max="63"/>
-    <col width="9.06640625" customWidth="1" style="2" min="64" max="16384"/>
+    <col width="9.06640625" customWidth="1" style="2" min="11" max="65"/>
+    <col width="9.06640625" customWidth="1" style="2" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customFormat="1" customHeight="1" s="1">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"动物","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=R3zocS5%2BRhfiikY1r8ogdvr0%2FC9qbEjPdmQmSSGjRgQ%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","coverTagConfidence":0.825,"coverOverallScore":0.7},{"name":"人物","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=bh2qGijlStZftrBb9qYuJ%2Bqm0Ojil8B2pLtFUzoa2Xg%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","coverTagConfidence":null,"coverOverallScore":0.676},{"name":"电子产品","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=KsP3Wf4lrW5%2Fv%2BZh7CY9FWcUSAmt3YHpJ2e8H6fv9D8%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7691b0d240305e142baa9d404cf315a88d1","coverTagConfidence":1.0,"coverOverallScore":0.72}]}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"动物","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bGLODmuaZW%2F5SEVl7T3G8lXLlGtfHxoDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNSHHBkfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABXICiY3MZ%2BN1HWOKUEdo8kOkLh58%2B7yYuVInM1UjecDUJgzciypLyA0K4cOzYn%2Bh92hB%2F1DqF77UIFc%2FU71rTDoXU8IgsNC442%2FOFGd03MaYAlLPUHJXVbdMdHVNv4DAnnW9iOsPsH8OeulzPwOyMR8qfLKz4nlApD9Yp2iSy7%2BI%3D&amp;x-oss-access-key-id=STS.NUsgZRTywHVoTxb8opP6jZ4ZB&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=w0lECUn5xnFqrmj%2FjGj%2FK54FVoxm4xsrcfiJAv2yYIA%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","coverTagConfidence":0.825,"coverOverallScore":0.7},{"name":"人物","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bGLODmuaZW%2F5SEVl7T3G8lXLlGtfHxoDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNSHHBkfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABXICiY3MZ%2BN1HWOKUEdo8kOkLh58%2B7yYuVInM1UjecDUJgzciypLyA0K4cOzYn%2Bh92hB%2F1DqF77UIFc%2FU71rTDoXU8IgsNC442%2FOFGd03MaYAlLPUHJXVbdMdHVNv4DAnnW9iOsPsH8OeulzPwOyMR8qfLKz4nlApD9Yp2iSy7%2BI%3D&amp;x-oss-access-key-id=STS.NUsgZRTywHVoTxb8opP6jZ4ZB&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=Qs9DxNlxWHPsJuiMpycAjrfEeL%2B74AZkwfFgjgz0h%2FE%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","coverTagConfidence":null,"coverOverallScore":0.676},{"name":"电子产品","count":1,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bGLODmuaZW%2F5SEVl7T3G8lXLlGtfHxoDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNSHHBkfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABXICiY3MZ%2BN1HWOKUEdo8kOkLh58%2B7yYuVInM1UjecDUJgzciypLyA0K4cOzYn%2Bh92hB%2F1DqF77UIFc%2FU71rTDoXU8IgsNC442%2FOFGd03MaYAlLPUHJXVbdMdHVNv4DAnnW9iOsPsH8OeulzPwOyMR8qfLKz4nlApD9Yp2iSy7%2BI%3D&amp;x-oss-access-key-id=STS.NUsgZRTywHVoTxb8opP6jZ4ZB&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1oiTUWOXW9Wsaym%2BKofWkaRa3cb77bLQLeHl5anB4zE%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a7691b0d240305e142baa9d404cf315a88d1","coverTagConfidence":1.0,"coverOverallScore":0.72}]}}</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=owp6Lq2G6mGJpmeFEWxKzM8heDE%2BS6s5nNOz7aTB5lM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=0mygcQu98uvIs7H35ZDnGBpN3IUYfah0XG81El5%2Fv%2BQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=6FZU1X19DmSTh3oINBisu8Ywxf68ybhRX439hHgUBrE%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=Fphaq5zadlSqFt99B6pl%2FhJEhOxZ%2BUYM2VJjmDzC%2B6Q%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=EuPr%2FWIFLai2sfjVolaY%2Bb9wsOgqOVe1H90SaBw%2FObw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601123&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=4Nc22sJtR1OnrEHwI8ygNxaWNRu5cACMBTbHOyObjNY%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广州市","location":"23.132277,113.374466","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=R3zocS5%2BRhfiikY1r8ogdvr0%2FC9qbEjPdmQmSSGjRgQ%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}],"nextPageCursor":null}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广州市","location":"23.132277,113.374466","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bGLODmuaZW%2F5SEVl7T3G8lXLlGtfHxoDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNSHHBkfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABXICiY3MZ%2BN1HWOKUEdo8kOkLh58%2B7yYuVInM1UjecDUJgzciypLyA0K4cOzYn%2Bh92hB%2F1DqF77UIFc%2FU71rTDoXU8IgsNC442%2FOFGd03MaYAlLPUHJXVbdMdHVNv4DAnnW9iOsPsH8OeulzPwOyMR8qfLKz4nlApD9Yp2iSy7%2BI%3D&amp;x-oss-access-key-id=STS.NUsgZRTywHVoTxb8opP6jZ4ZB&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=bjmLPU0io7DVaxxYa%2B55WSXC61sQw%2FMf%2BInxcMAM%2B5M%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416a6f05190b85324434d3190fe18299afa89ab","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}],"nextPageCursor":null}}</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广东省","location":"23.132332,113.374245","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bjIc%2Fgg45i5qqObRDm0VEFa9hhnoGakjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNWqUXyrPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABg7Q1wcqEmV8kp09dw9Z%2BLv7k4Ra10mRR5uVti9sBfi1J2lblQgerQMA47WjXEEqtNRvrAKvn1MSAWXPUXaIF1%2B%2Fd%2FNCXt1vaZ2POffmE5OZfaunXIfMP9oD0r2a0m87luSqcOiR13jrlO337yIUJIQi0cIF0RO3iQIrNoRauJlg%3D&amp;x-oss-access-key-id=STS.NUVjuTnQCQheo6W5QPgWMqD1p&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_1080%2Ch_1080&amp;x-oss-signature=E%2FbozyINeHAhXwSvqnbMXJSFmZ7Uy7JPiCAXUOA%2B5N8%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416b57a3d0d17261954455a9bb09fe15028867b","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}]}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"name":"广东省","location":"23.132332,113.374245","count":6,"coverUrl":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5bGLODmuaZW%2F5SEVl7T3G8lXLlGtfHxoDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNSHHBkfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABXICiY3MZ%2BN1HWOKUEdo8kOkLh58%2B7yYuVInM1UjecDUJgzciypLyA0K4cOzYn%2Bh92hB%2F1DqF77UIFc%2FU71rTDoXU8IgsNC442%2FOFGd03MaYAlLPUHJXVbdMdHVNv4DAnnW9iOsPsH8OeulzPwOyMR8qfLKz4nlApD9Yp2iSy7%2BI%3D&amp;x-oss-access-key-id=STS.NUsgZRTywHVoTxb8opP6jZ4ZB&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_1080%2Ch_1080&amp;x-oss-signature=UCmPZzy2m13ty%2Bl6EQQBb6h%2F47JwnDgLe6nWMCdK0oA%3D&amp;x-oss-signature-version=OSS2","coverFileId":"6416b57a3d0d17261954455a9bb09fe15028867b","addressDetail":{"addressline":null,"country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"}}]}}</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=Q%2BtXOtDt9hluOFq2xLnoFHfLQr4sgLHy27oj7SCo%2Fto%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=XBu12oRwb0ucQmD%2FDHGaMxRw0%2FcIeybiA2S3UquDn0E%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=wLvURycKmwEVYZdyWqueU%2F9wVqfPObsO9JWxGq7sRRA%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=xNuFbjqJj%2FIusVQwLHhyLCDOxDYz%2FH89%2B0qxEcPKK9Q%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=vgWV%2BNGJH6PhhTJZbYW84GiNXhgOO9XMpOORSSbF1CE%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=yDNoJPCcA7O2iZu2%2B%2FI4mH8rFytgdMUqtQkrw1o99R8%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=qDL11iRg92yjKoMWREsHUvBlaNPOoESiqj8A7IIkrzs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=1yWKQl0bO3UMqnpDsOgFY1VEAQXh7VXaprCyQJo8fA4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WgJZeTDi5XSDIoT%2FTRYRYTTliXhPjSX3E%2BjUvQzNvFQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=DU3XVGzjXn6A2j%2B079Brj1buaGIanGyeSt6c%2Bpbietw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=WLVGQxgn%2F7%2F40K8nmvgwbJvbGkUT3TSjpRLs1DSe8Qg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=ItSTsxH2kT%2Bjmjx34vRdgwM56FPW4kpqyVsM6lsnSXU%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"root","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:08:48.815Z","updatedAt":"2023-03-19T06:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=Q%2BtXOtDt9hluOFq2xLnoFHfLQr4sgLHy27oj7SCo%2Fto%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":null},{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"root","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:09:33.665Z","updatedAt":"2023-03-19T06:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=XBu12oRwb0ucQmD%2FDHGaMxRw0%2FcIeybiA2S3UquDn0E%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":null},{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"root","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:10:49.342Z","updatedAt":"2023-03-19T06:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=wLvURycKmwEVYZdyWqueU%2F9wVqfPObsO9JWxGq7sRRA%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":null},{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"root","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:11:33.252Z","updatedAt":"2023-03-19T06:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=xNuFbjqJj%2FIusVQwLHhyLCDOxDYz%2FH89%2B0qxEcPKK9Q%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":null},{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"root","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T06:12:14.559Z","updatedAt":"2023-03-19T06:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=vgWV%2BNGJH6PhhTJZbYW84GiNXhgOO9XMpOORSSbF1CE%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":null},{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"root","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T07:10:50.524Z","updatedAt":"2023-03-19T07:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cw_128%2Ch_128&amp;x-oss-signature=yDNoJPCcA7O2iZu2%2B%2FI4mH8rFytgdMUqtQkrw1o99R8%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":null,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":null}],"nextPageCursor":"","totalCount":6}}</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":[{"fileInfo":{"fileId":"/sbox","parentFileId":"/","name":"保险箱","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/videostory","parentFileId":"/","name":"来自相册：视频故事","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/myfaverapp","parentFileId":"/","name":"我的应用收藏","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"641430da255f601287a0420c96814120cffe5a4c","parentFileId":"/","name":"test1679044827.docx","description":"单片上传","type":"file","fileExtension":"docx","category":"doc","createdAt":"2023-03-17T17:20:26.482Z","updatedAt":"2023-03-17T17:20:26.482Z","trashedAt":null,"starred":false,"size":63919,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-valueadd.oss-cn-guangzhou.aliyuncs.com/OfficeThumbnail%2Fx6jPugKx%2F503%2F6414170b6bc07fb9a6174365826cccd3abd7ee60%2F6414170ba368f5731ab44839b7a19f602f2bd6c0%2F1.jpg?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_mfit%2Cw_256%2Climit_0&amp;x-oss-signature=9iHqmEEC8DDnwRANAwBWGNLdAw2I2ZX6xaa2nLWoqCs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"641430da7a6386c350434149bbbdf6d14d79827e","mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"/","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:08:48.815Z","updatedAt":"2023-03-19T14:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=WNbnzXeFdv3lIegQWKAy2JEDoaGulAfyDx4%2F9hyL8CQ%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025251000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"/","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:09:33.665Z","updatedAt":"2023-03-19T14:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=UpNDrYkniwuVqParIHaeuipBgKyIC5aKlcKhA1bdlEg%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025278000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"/","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:10:49.342Z","updatedAt":"2023-03-19T14:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=OIIYRUzkG6ubMMONk3Lu7M9N4Qebyhpqg1o3WpUEvuM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1631212363000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"/","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:11:33.252Z","updatedAt":"2023-03-19T14:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=YjKXskLBvc%2BaSkQno9JLJbfSSd3wmzs5B4wP9CizwZM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1641380204000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=27KZwPTfeiKDjAJqlnkvr%2FiHDKDAoBPUzaZqS42CU%2BA%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"/","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T15:10:50.524Z","updatedAt":"2023-03-19T15:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385410&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=tmd2o%2Fxk%2F9F9gvOjy1DKryhqVCApjx3OTPUuBiIOZNc%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1644860350000,"duration":null}},"isIngested":true}]}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":[{"fileInfo":{"fileId":"/sbox","parentFileId":"/","name":"保险箱","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/videostory","parentFileId":"/","name":"来自相册：视频故事","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"/myfaverapp","parentFileId":"/","name":"我的应用收藏","description":null,"type":"folder","fileExtension":null,"category":null,"createdAt":null,"updatedAt":null,"trashedAt":null,"starred":null,"size":null,"thumbnailUrls":null,"punishMode":null,"systemDir":true,"revisionId":null,"mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"641430da255f601287a0420c96814120cffe5a4c","parentFileId":"/","name":"test1679044827.docx","description":"单片上传","type":"file","fileExtension":"docx","category":"doc","createdAt":"2023-03-17T17:20:26.482Z","updatedAt":"2023-03-17T17:20:26.482Z","trashedAt":null,"starred":false,"size":63919,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-valueadd.oss-cn-guangzhou.aliyuncs.com/OfficeThumbnail%2Fx6jPugKx%2F503%2F6414170b6bc07fb9a6174365826cccd3abd7ee60%2F6414170ba368f5731ab44839b7a19f602f2bd6c0%2F1.jpg?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_mfit%2Cw_256%2Climit_0&amp;x-oss-signature=uP7rFRYK6ZyoQqYdCOxSHVRGuEu6fIyaJsDZ8S4amkw%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"641430da7a6386c350434149bbbdf6d14d79827e","mediaMetaInfo":null},"isIngested":true},{"fileInfo":{"fileId":"6416a6f05190b85324434d3190fe18299afa89ab","parentFileId":"/","name":"11.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:08:48.815Z","updatedAt":"2023-03-19T14:58:02.864Z","trashedAt":null,"starred":false,"size":3306082,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/ulZNGrj8%2F3070%2F6416a6f05190b85324434d3190fe18299afa89ab%2F6416a6f0a4d5b203c4eb4ee6949faab347f4cea9?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=5JYetqDKXMPdkZnx6PM5tpgzTq5h%2FX5WKzFRFV5MpnM%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a6f0a4d5b203c4eb4ee6949faab347f4cea9","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025251000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a71d86a63bddbc62430286ca7099d9dd2741","parentFileId":"/","name":"22.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:09:33.665Z","updatedAt":"2023-03-19T14:09:52.216Z","trashedAt":null,"starred":false,"size":3722842,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/qPYIrmg1%2F3070%2F6416a71d86a63bddbc62430286ca7099d9dd2741%2F6416a71df6144ed6d1154d2db2b357e54cf86ef1?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=mZEJ7a8T0M5txCo%2FPj2ZPJN85U89eci7CGG0Zvd3o30%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a71df6144ed6d1154d2db2b357e54cf86ef1","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1631025278000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7691b0d240305e142baa9d404cf315a88d1","parentFileId":"/","name":"33.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:10:49.342Z","updatedAt":"2023-03-19T14:10:57.399Z","trashedAt":null,"starred":false,"size":3859262,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/zBiRrpia%2F3070%2F6416a7691b0d240305e142baa9d404cf315a88d1%2F6416a7697dd380f5d4ad4d959f37379781126d38?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=6LjlytQl0KKW2%2FrX2tKWCd10heK4kGxWEgGvGUsyXW4%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7697dd380f5d4ad4d959f37379781126d38","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1631212363000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7950310c7bc29e84dedaabf865086703403","parentFileId":"/","name":"44.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:11:33.252Z","updatedAt":"2023-03-19T14:11:40.861Z","trashedAt":null,"starred":false,"size":3516763,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/YI61K4db%2F3070%2F6416a7950310c7bc29e84dedaabf865086703403%2F6416a7958d9ba62efa504153bac72e423d7bea05?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=zr%2F3LnUGAVZThuoQI1087CTNK1S4B0qdJ9BBs8rp5os%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7958d9ba62efa504153bac72e423d7bea05","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1641380204000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"starred":false,"size":3089098,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=aNp2iqRP7odUhpIOXg8AYrbSaFc0%2BFuHXzH7RWxcA%2Bc%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null}},"isIngested":true},{"fileInfo":{"fileId":"6416b57a3d0d17261954455a9bb09fe15028867b","parentFileId":"/","name":"66.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T15:10:50.524Z","updatedAt":"2023-03-19T15:10:54.854Z","trashedAt":null,"starred":false,"size":4709270,"thumbnailUrls":[{"style":"Small","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/rRMXs3X4%2F3070%2F6416b57a3d0d17261954455a9bb09fe15028867b%2F6416b57a4b2a0afa58f9497fb850c985f21db0b3?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5DDLon5nohQ8IebZXL7rG0yOvcZpIjAtzz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNQOCbUbOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABN8Bc6KtYvCl7TW9%2BtD7chChtembhNptmU140YEWiVC5riCxoef8RcflKgYPLVix3cCr9pCqyrigiFVJ9PqFJvy4w12KRNFSKEIekCxRgDRM4A9syXP1PxP7UlO4QwO7Jp19ZeDJDadSAF%2FSTy3PwA4LjTaguIVhC9hzGCBe8PDc%3D&amp;x-oss-access-key-id=STS.NSve3MsWqGEpgTJHmg6x5KMkU&amp;x-oss-expires=1679601124&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_128&amp;x-oss-signature=Gcy3yxhXPfeMf%2BlYA3FK3IODBLaz0FpVTXUUofKnRBc%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"systemDir":false,"revisionId":"6416b57a4b2a0afa58f9497fb850c985f21db0b3","mediaMetaInfo":{"width":4000,"height":2992,"takenAt":1644860350000,"duration":null}},"isIngested":true}]}</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.015Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"RSoBCX54Pb3","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-23T19:37:05.118Z","updatedAt":"2023-03-23T19:37:05.118Z","fileCount":0}}</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.015Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"RSoBCX54Pb3","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-23T19:37:05.118Z","updatedAt":"2023-03-23T19:37:05.118Z","fileCount":0}}</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"LP2WyopP2cS","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-21T07:41:51.015Z","updatedAt":"2023-03-21T07:41:51.219Z","fileCount":0}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"albumId":"RSoBCX54Pb3","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-23T19:37:05.118Z","updatedAt":"2023-03-23T19:37:05.519Z","fileCount":0}}</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":null,"nextPageCursor":null}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"albumId":"gfqrbknoaYo","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":{"userSpecified":false,"list":[null]},"createdAt":"2023-03-19T06:16:43.168Z","updatedAt":"2023-03-20T08:37:11.162Z","fileCount":1},{"albumId":"hNkEZZVu4sw","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-19T06:47:00.115Z","updatedAt":"2023-03-19T06:47:00.115Z","fileCount":0},{"albumId":"idbAaCYFid6","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-21T02:11:56.952Z","updatedAt":"2023-03-21T02:11:56.952Z","fileCount":0},{"albumId":"Xm9UMyN2E6u","owner":"1069539728929497164","name":"666","description":"??","cover":null,"createdAt":"2023-03-23T07:39:37.972Z","updatedAt":"2023-03-23T07:39:37.972Z","fileCount":0},{"albumId":"1DCKCTzcZdN","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-23T07:41:48.713Z","updatedAt":"2023-03-23T07:41:48.848Z","fileCount":0},{"albumId":"JnCEnkxbHUT","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-23T07:55:07.413Z","updatedAt":"2023-03-23T07:55:07.413Z","fileCount":0},{"albumId":"FPFnWSQHya4","owner":"1069539728929497164","name":"666","description":"描述","cover":null,"createdAt":"2023-03-23T07:55:38.756Z","updatedAt":"2023-03-23T07:55:38.756Z","fileCount":0},{"albumId":"RSoBCX54Pb3","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-23T19:37:05.118Z","updatedAt":"2023-03-23T19:37:05.519Z","fileCount":0}],"nextPageCursor":""}}</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1078,14 +1078,14 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>/album/listFiles</t>
+          <t>/album/list</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
           <t>{
     "albumId": "${albumId}",
-    "orderBy": "joinedAt",
+    "orderBy": "createdAt",
     "orderDirection":"ASC",
     "imageThumbnailStyleList":["Small"],
     "pageInfo": {
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"albumId":"gfqrbknoaYo","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":{"userSpecified":false,"list":[{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"localCreatedAt":"2023-03-20T06:51:27.292Z","localUpdatedAt":"2023-03-20T06:51:27.292Z","starred":false,"size":3089098,"userTags":null,"labels":null,"thumbnailUrls":[{"style":"Big","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5fzKMruvYZA1rCPeEyHkFAMZsxenoDGlDz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNXKrDCnPqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABJkgT8eGBn15239nJ%2FVo43XfcfJ8qRLPCxhCxZgnMMKdZJGX2KDxo0yyCTJ5R2V%2FkPbYOuMBEbIvkwGuRdtFrmkITVq2Uu%2FfZLpNz9Q8uHZotxNcmA194E5Fa3B0m7FgJjLZPSA1%2B9IBLHXgRYFQPeHrfsmA%2BiZ3BrV6glXYjFNc%3D&amp;x-oss-access-key-id=STS.NTFcpZPYaardzj6tPYjCrqEmv&amp;x-oss-expires=1679385411&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_800&amp;x-oss-signature=8tMxIN3PsRWMO5cwUYXcWlM%2B0A7ZHY3QIqE7rvGaKQs%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"contentHash":"0A7388718ADD1F6F4C4D6D6A393DCA54EF116833","contentHashAlgorithm":"SHA1","revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null},"addressDetail":{"addressline":"广东省广州市天河区棠下街道棠新小区","country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"},"systemDir":null}]},"createdAt":"2023-03-19T06:16:43.168Z","updatedAt":"2023-03-20T08:37:11.162Z","fileCount":1}],"nextMarker":"","totalCount":1}}</t>
+          <t>{"success":true,"code":"0000","message":"请求成功","data":{"items":[{"albumId":"gfqrbknoaYo","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":{"userSpecified":false,"list":[{"fileId":"6416a7bec14fce44759a42a9a4ccbf3ae3eb7043","parentFileId":"/","name":"55.jpg","description":"单片上传","type":"file","fileExtension":"jpg","category":"image","createdAt":"2023-03-19T14:12:14.559Z","updatedAt":"2023-03-19T14:12:21.380Z","trashedAt":null,"localCreatedAt":"2023-03-20T06:51:27.292Z","localUpdatedAt":"2023-03-20T06:51:27.292Z","starred":false,"size":3089098,"userTags":null,"labels":null,"thumbnailUrls":[{"style":"Big","url":"https://pds-gz12-gz-1677806012.oss-cn-guangzhou.aliyuncs.com/2MEFgoxz%2F3070%2F6416a7bec14fce44759a42a9a4ccbf3ae3eb7043%2F6416a7be989f33a90c5e4edfb0ca742e6faba659?security-token=CAIS%2BgF1q6Ft5B2yfSjIr5btE%2F3toetX%2FZWTcmrBpTgFPsQfnYngrjz2IHFPeHJrBeAYt%2FoxmW1X5vwSlq5rR4QAXlDfNTfBFUfOqVHPWZHInuDox55m4cTXNAr%2BIhr%2F29CoEIedZdjBe%2FCrRknZnytou9XTfimjWFrXWv%2Fgy%2BQQDLItUxK%2FcCBNCfpPOwJms7V6D3bKMuu3OROY6Qi5TmgQ41Uh1jgjtPzkkpfFtkGF1GeXkLFF%2B97DRbG%2FdNRpMZtFVNO44fd7bKKp0lQLukMWr%2Fwq3PIdp2ma447NWQlLnzyCMvvJ9OVDFyN0aKEnH7J%2Bq%2FzxhTPrMnpkSlacGoABI9bCXjZRn%2FhSc0nBCx4qIW5rvAGUAHaA%2FxmAq3DDYo6bWtNq7sEjykuyFPyqlzJ0K2tEurfNyCTIEL75AOyHNVou5wyIHRKbwZidL6jcfg3zrilYG5K%2FMIKl%2BTVPT0rmItxygREED%2F%2FfMvVdfXi8hDmYV0hrbWL3pHPH486loww%3D&amp;x-oss-access-key-id=STS.NUXXGYL4vJWxpLpA8P2K3rLKL&amp;x-oss-expires=1679601126&amp;x-oss-process=image%2Fresize%2Cm_lfit%2Climit_1%2Cl_800&amp;x-oss-signature=HQLH6IcDkNrrtvBf4eBMx5Fa1tatsV6k42rPoRjfcRc%3D&amp;x-oss-signature-version=OSS2"}],"punishMode":null,"contentHash":"0A7388718ADD1F6F4C4D6D6A393DCA54EF116833","contentHashAlgorithm":"SHA1","revisionId":"6416a7be989f33a90c5e4edfb0ca742e6faba659","mediaMetaInfo":{"width":2992,"height":4000,"takenAt":1642763677000,"duration":null},"addressDetail":{"addressline":"广东省广州市天河区棠下街道棠新小区","country":"中国","province":"广东省","city":"广州市","district":"天河区","township":"棠下街道"},"systemDir":null}]},"createdAt":"2023-03-19T06:16:43.168Z","updatedAt":"2023-03-20T08:37:11.162Z","fileCount":1},{"albumId":"1DCKCTzcZdN","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-23T07:41:48.713Z","updatedAt":"2023-03-23T07:41:48.848Z","fileCount":0},{"albumId":"RSoBCX54Pb3","owner":"1069539728929497164","name":"555","description":"miaoshu","cover":null,"createdAt":"2023-03-23T19:37:05.118Z","updatedAt":"2023-03-23T19:37:05.519Z","fileCount":0}],"nextMarker":"","totalCount":3}}</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
